--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-masking-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,19 +49,19 @@
     <t>fraud</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>war</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>war</t>
+    <t>fuck</t>
   </si>
   <si>
     <t>low</t>
@@ -76,12 +76,12 @@
     <t>shortage</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
@@ -94,111 +94,108 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
+    <t>credit</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>shopping</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
@@ -223,10 +217,10 @@
     <t>consumer</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
   </si>
   <si>
     <t>co</t>
@@ -590,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,7 +595,7 @@
         <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +671,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K3">
-        <v>0.9491525423728814</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7692307692307693</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -727,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K4">
-        <v>0.9347826086956522</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="M4">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -751,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +777,13 @@
         <v>28</v>
       </c>
       <c r="K5">
-        <v>0.9230769230769231</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7241379310344828</v>
+        <v>0.7054794520547946</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="D6">
-        <v>21</v>
+        <v>206</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -827,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6986301369863014</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C7">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>204</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L7">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6666666666666666</v>
+        <v>0.6052631578947368</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -927,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -951,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +977,13 @@
         <v>32</v>
       </c>
       <c r="K9">
-        <v>0.84375</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="L9">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="M9">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,37 +1003,37 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5263157894736842</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C10">
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>20</v>
-      </c>
-      <c r="D10">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.84375</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1077,13 @@
         <v>34</v>
       </c>
       <c r="K11">
-        <v>0.8085106382978723</v>
+        <v>0.8414634146341463</v>
       </c>
       <c r="L11">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="M11">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1101,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3682170542635659</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C12">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D12">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K12">
-        <v>0.7833333333333333</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1177,13 @@
         <v>36</v>
       </c>
       <c r="K13">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L13">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3220338983050847</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="C14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>37</v>
@@ -1236,10 +1230,10 @@
         <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1259,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3116883116883117</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1277,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>38</v>
@@ -1309,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2962962962962963</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="D16">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1327,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K16">
-        <v>0.7647058823529411</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1351,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1359,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2555555555555555</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="C17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1377,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>0.746031746031746</v>
+        <v>0.7547169811320755</v>
       </c>
       <c r="L17">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1401,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1409,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2142857142857143</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="C18">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D18">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1427,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K18">
-        <v>0.7169811320754716</v>
+        <v>0.73125</v>
       </c>
       <c r="L18">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="M18">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1451,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1459,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1260053619302949</v>
+        <v>0.1099195710455764</v>
       </c>
       <c r="C19">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1477,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>0.7037037037037037</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1501,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1509,13 +1503,13 @@
         <v>43</v>
       </c>
       <c r="K20">
-        <v>0.7021276595744681</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L20">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M20">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1529,13 @@
         <v>44</v>
       </c>
       <c r="K21">
-        <v>0.69375</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1561,13 +1555,13 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>0.6266318537859008</v>
+        <v>0.625</v>
       </c>
       <c r="L22">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="M22">
-        <v>240</v>
+        <v>30</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1587,13 +1581,13 @@
         <v>46</v>
       </c>
       <c r="K23">
-        <v>0.6041666666666666</v>
+        <v>0.6240208877284595</v>
       </c>
       <c r="L23">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="M23">
-        <v>29</v>
+        <v>239</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>19</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1613,13 +1607,13 @@
         <v>47</v>
       </c>
       <c r="K24">
-        <v>0.5882352941176471</v>
+        <v>0.62</v>
       </c>
       <c r="L24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1639,13 +1633,13 @@
         <v>48</v>
       </c>
       <c r="K25">
-        <v>0.58</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1665,13 +1659,13 @@
         <v>49</v>
       </c>
       <c r="K26">
-        <v>0.5777777777777777</v>
+        <v>0.5730337078651685</v>
       </c>
       <c r="L26">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M26">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1683,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1691,13 +1685,13 @@
         <v>50</v>
       </c>
       <c r="K27">
-        <v>0.5617977528089888</v>
+        <v>0.5705882352941176</v>
       </c>
       <c r="L27">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="M27">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1709,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>39</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1717,13 +1711,13 @@
         <v>51</v>
       </c>
       <c r="K28">
-        <v>0.5588235294117647</v>
+        <v>0.55</v>
       </c>
       <c r="L28">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1743,13 +1737,13 @@
         <v>52</v>
       </c>
       <c r="K29">
-        <v>0.5389830508474577</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="L29">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M29">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1769,13 +1763,13 @@
         <v>53</v>
       </c>
       <c r="K30">
-        <v>0.5348837209302325</v>
+        <v>0.5230125523012552</v>
       </c>
       <c r="L30">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="M30">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1787,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1795,13 +1789,13 @@
         <v>54</v>
       </c>
       <c r="K31">
-        <v>0.525</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1813,7 +1807,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1821,13 +1815,13 @@
         <v>55</v>
       </c>
       <c r="K32">
-        <v>0.5230125523012552</v>
+        <v>0.46875</v>
       </c>
       <c r="L32">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>114</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1847,13 +1841,13 @@
         <v>56</v>
       </c>
       <c r="K33">
-        <v>0.4743589743589743</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1873,13 +1867,13 @@
         <v>57</v>
       </c>
       <c r="K34">
-        <v>0.4383561643835616</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1899,13 +1893,13 @@
         <v>58</v>
       </c>
       <c r="K35">
-        <v>0.4307692307692308</v>
+        <v>0.4418604651162791</v>
       </c>
       <c r="L35">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1917,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1925,13 +1919,13 @@
         <v>59</v>
       </c>
       <c r="K36">
-        <v>0.40625</v>
+        <v>0.3538461538461539</v>
       </c>
       <c r="L36">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M36">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1943,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1951,13 +1945,13 @@
         <v>60</v>
       </c>
       <c r="K37">
-        <v>0.360655737704918</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1977,13 +1971,13 @@
         <v>61</v>
       </c>
       <c r="K38">
-        <v>0.3142857142857143</v>
+        <v>0.1244019138755981</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1995,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>48</v>
+        <v>366</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2003,13 +1997,13 @@
         <v>62</v>
       </c>
       <c r="K39">
-        <v>0.1124401913875598</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="L39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M39">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2021,7 +2015,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -2029,13 +2023,13 @@
         <v>63</v>
       </c>
       <c r="K40">
-        <v>0.1081730769230769</v>
+        <v>0.08837209302325581</v>
       </c>
       <c r="L40">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>371</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -2055,13 +2049,13 @@
         <v>64</v>
       </c>
       <c r="K41">
-        <v>0.09302325581395349</v>
+        <v>0.07046979865771812</v>
       </c>
       <c r="L41">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2073,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>195</v>
+        <v>831</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2081,13 +2075,13 @@
         <v>65</v>
       </c>
       <c r="K42">
-        <v>0.08837209302325581</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2099,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>196</v>
+        <v>850</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2107,25 +2101,25 @@
         <v>66</v>
       </c>
       <c r="K43">
-        <v>0.06159014557670773</v>
+        <v>0.04160246533127889</v>
       </c>
       <c r="L43">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="N43">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O43">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>838</v>
+        <v>622</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2133,13 +2127,13 @@
         <v>67</v>
       </c>
       <c r="K44">
-        <v>0.05660377358490566</v>
+        <v>0.03806228373702422</v>
       </c>
       <c r="L44">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2151,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>850</v>
+        <v>834</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2159,25 +2153,25 @@
         <v>68</v>
       </c>
       <c r="K45">
-        <v>0.03703703703703703</v>
+        <v>0.03559718969555035</v>
       </c>
       <c r="L45">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="M45">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="N45">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="O45">
-        <v>0.07999999999999996</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P45" t="b">
         <v>1</v>
       </c>
       <c r="Q45">
-        <v>624</v>
+        <v>2059</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2185,25 +2179,25 @@
         <v>69</v>
       </c>
       <c r="K46">
-        <v>0.0313376987839102</v>
+        <v>0.01677960632462085</v>
       </c>
       <c r="L46">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="N46">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="O46">
-        <v>0.06999999999999995</v>
+        <v>0.13</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>2071</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2211,77 +2205,25 @@
         <v>70</v>
       </c>
       <c r="K47">
-        <v>0.02883506343713956</v>
+        <v>0.007203257124960852</v>
       </c>
       <c r="L47">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.74</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48">
-        <v>0.01418897129958078</v>
-      </c>
-      <c r="L48">
-        <v>44</v>
-      </c>
-      <c r="M48">
-        <v>50</v>
-      </c>
-      <c r="N48">
-        <v>0.88</v>
-      </c>
-      <c r="O48">
-        <v>0.12</v>
-      </c>
-      <c r="P48" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q48">
-        <v>3057</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="K49">
-        <v>0.007205513784461152</v>
-      </c>
-      <c r="L49">
-        <v>23</v>
-      </c>
-      <c r="M49">
-        <v>32</v>
-      </c>
-      <c r="N49">
-        <v>0.72</v>
-      </c>
-      <c r="O49">
-        <v>0.28</v>
-      </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>3169</v>
+        <v>3170</v>
       </c>
     </row>
   </sheetData>
